--- a/Project 4 – Sales Analysis Dashboard.xlsx
+++ b/Project 4 – Sales Analysis Dashboard.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data science course\PROJECTS\EXCEL-PROJECTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C54B5D-350C-4E8F-8699-BBFDE271AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80561D-AE07-4844-9E95-DF582C6B8E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CB513627-9323-4189-AD75-CE13174D7D8F}"/>
   </bookViews>
@@ -21,7 +16,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -245,12 +240,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,17 +249,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="30">
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -355,32 +364,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3250,7 +3233,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vinay Sharma" refreshedDate="45688.90555127315" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{7E2A9EA7-BC39-4A42-8B50-0BA9130F5F6C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45688.90555127315" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{7E2A9EA7-BC39-4A42-8B50-0BA9130F5F6C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F17" sheet="Sales Data"/>
   </cacheSource>
@@ -3453,7 +3436,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{977640C3-5B69-447E-B3CC-664DE2422F5B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{977640C3-5B69-447E-B3CC-664DE2422F5B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A21:D31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3622,7 +3605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9109C11-166E-40E1-B8C7-6FBA1774747E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9109C11-166E-40E1-B8C7-6FBA1774747E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:G12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -3735,45 +3718,45 @@
     <dataField name="Total Sales" fld="1" baseField="5" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="31">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="26">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="25">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="23">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="19">
       <pivotArea field="4" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3782,7 +3765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="18">
       <pivotArea field="4" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3864,7 +3847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea field="4" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3873,7 +3856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3886,7 +3869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -4784,8 +4767,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="top10" dxfId="33" priority="1" percent="1" bottom="1" rank="20"/>
-    <cfRule type="top10" dxfId="32" priority="2" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="20"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{D58E3DE5-2E1B-4903-AF92-5567082A2DDF}">
@@ -4836,209 +4819,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>200</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>380</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>300</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>520</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>500</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>170</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>340</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>270</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>460</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>440</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>310</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>560</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>170</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>270</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>480</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>330</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>600</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>330</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>640</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>660</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>1240</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>1010</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1880</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>1070</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>1890</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>2080</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>3770</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -5292,11 +5275,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
